--- a/Sprint 1/ScrumMaster Notes/Burndown Chart Planned and Actual.xlsx
+++ b/Sprint 1/ScrumMaster Notes/Burndown Chart Planned and Actual.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stewart\Documents\UNIVERSITY\Third Year\Agile Computing Coursework 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5858E8-1674-4DC5-8DA6-EEF8E7A4D4D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF40A825-05E9-46B6-A0CE-71DD598CB7F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20655" yWindow="2925" windowWidth="38700" windowHeight="15435" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planned Burndown Chart" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="-Disclaimer-" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Actual Burndown Chart'!$B$2:$V$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Actual Burndown Chart'!$B$2:$V$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Planned Burndown Chart'!$B$2:$V$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>STORY POINTS</t>
   </si>
@@ -137,12 +137,6 @@
     <t>Make the it so questionnaire responses will be sent to the database with it's own unique ID.</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Make different views for different users of the system.</t>
-  </si>
-  <si>
     <t>Stewart</t>
   </si>
   <si>
@@ -158,16 +152,35 @@
     <t>Jordan, Mikolaj, Aldrin</t>
   </si>
   <si>
-    <t>Setup login, Home  Create account page</t>
+    <t>Jordan/Aldrin</t>
+  </si>
+  <si>
+    <t>Setup login page</t>
+  </si>
+  <si>
+    <t>Setup Create account page</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>ACTUAL BURNDOWN CHART</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -300,43 +313,49 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -689,27 +708,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Actual Burndown Chart'!$F$22:$L$22</c:f>
+              <c:f>'Actual Burndown Chart'!$F$21:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -876,7 +892,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>431800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4954,11 +4970,11 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AB124"/>
+  <dimension ref="B1:AB125"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4981,7 +4997,7 @@
   <sheetData>
     <row r="1" spans="2:28" ht="49.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B1" s="12" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -5096,26 +5112,28 @@
     </row>
     <row r="4" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="9">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="16"/>
       <c r="G4" s="9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H4" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
@@ -5135,21 +5153,23 @@
     </row>
     <row r="5" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C5" s="9">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="9"/>
+        <v>33</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H5" s="9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -5174,21 +5194,23 @@
     </row>
     <row r="6" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -5213,21 +5235,25 @@
     </row>
     <row r="7" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="9">
         <v>4</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9">
-        <v>4</v>
-      </c>
+      <c r="G7" s="9">
+        <v>2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2</v>
+      </c>
+      <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -5248,23 +5274,31 @@
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
-    <row r="8" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="9"/>
+        <v>34</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="I8" s="9">
+        <v>2</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9">
+        <v>1</v>
+      </c>
       <c r="L8" s="9"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -5283,7 +5317,7 @@
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
-    <row r="9" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
@@ -5324,9 +5358,11 @@
         <v>2</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9">
         <v>2</v>
@@ -5358,20 +5394,28 @@
         <v>22</v>
       </c>
       <c r="C11" s="9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9">
-        <v>2</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1</v>
+      </c>
+      <c r="J11" s="9">
+        <v>1</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1</v>
+      </c>
       <c r="L11" s="9"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -5398,13 +5442,17 @@
         <v>2</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="9"/>
+        <v>37</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
       <c r="H12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -5428,29 +5476,21 @@
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="9">
-        <v>3</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="14"/>
+      <c r="B13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -5469,21 +5509,27 @@
       <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="B14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -5503,15 +5549,17 @@
     </row>
     <row r="15" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="9">
         <v>0.33</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9">
         <v>0.25</v>
@@ -5540,18 +5588,20 @@
     </row>
     <row r="16" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="9">
         <v>0.33</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="9"/>
+        <v>35</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
@@ -5576,25 +5626,21 @@
       <c r="AB16" s="4"/>
     </row>
     <row r="17" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
+      <c r="B17" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="7">
+        <v>7</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -5613,21 +5659,29 @@
       <c r="AB17" s="4"/>
     </row>
     <row r="18" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="7">
-        <v>7</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="B18" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
@@ -5647,15 +5701,17 @@
     </row>
     <row r="19" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="9">
         <v>2</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="9"/>
+        <v>36</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9">
@@ -5684,24 +5740,30 @@
     </row>
     <row r="20" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="9">
+      <c r="H20" s="9"/>
+      <c r="I20" s="9">
         <v>2</v>
       </c>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="J20" s="15">
+        <v>1</v>
+      </c>
+      <c r="K20" s="15">
+        <v>1</v>
+      </c>
+      <c r="L20" s="14"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -5720,29 +5782,35 @@
       <c r="AB20" s="4"/>
     </row>
     <row r="21" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="9">
-        <v>4</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9">
-        <v>2</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="14"/>
+      <c r="B21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
+        <v>9</v>
+      </c>
+      <c r="H21" s="5">
+        <f>SUM(H3:H20)</f>
+        <v>10</v>
+      </c>
+      <c r="I21" s="5">
+        <f>SUM(I3:I20)</f>
+        <v>6</v>
+      </c>
+      <c r="J21" s="5">
+        <f>SUM(J3:J20)</f>
+        <v>3</v>
+      </c>
+      <c r="K21" s="5">
+        <v>3</v>
+      </c>
+      <c r="L21" s="5">
+        <f>SUM(L3:L20)</f>
+        <v>0</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -5761,38 +5829,17 @@
       <c r="AB21" s="4"/>
     </row>
     <row r="22" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5">
-        <v>8</v>
-      </c>
-      <c r="G22" s="5">
-        <f>SUM(G4:G21)</f>
-        <v>6.5</v>
-      </c>
-      <c r="H22" s="5">
-        <f>SUM(H3:H21)</f>
-        <v>11.5</v>
-      </c>
-      <c r="I22" s="5">
-        <f>SUM(I3:I21)</f>
-        <v>6</v>
-      </c>
-      <c r="J22" s="5">
-        <f>SUM(J3:J21)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="5">
-        <v>5</v>
-      </c>
-      <c r="L22" s="5">
-        <f>SUM(L3:L21)</f>
-        <v>0</v>
-      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -5984,7 +6031,7 @@
       <c r="AA28" s="4"/>
       <c r="AB28" s="4"/>
     </row>
-    <row r="29" spans="2:28" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:28" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="1"/>
       <c r="D29" s="4"/>
@@ -6013,7 +6060,7 @@
       <c r="AA29" s="4"/>
       <c r="AB29" s="4"/>
     </row>
-    <row r="30" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:28" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="1"/>
       <c r="D30" s="4"/>
@@ -6042,7 +6089,7 @@
       <c r="AA30" s="4"/>
       <c r="AB30" s="4"/>
     </row>
-    <row r="31" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="1"/>
       <c r="D31" s="4"/>
@@ -8537,17 +8584,6 @@
       <c r="AB116" s="4"/>
     </row>
     <row r="117" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B117" s="4"/>
-      <c r="C117" s="1"/>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
-      <c r="I117" s="4"/>
-      <c r="J117" s="4"/>
-      <c r="K117" s="4"/>
-      <c r="L117" s="4"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -8690,6 +8726,24 @@
       <c r="Z124" s="4"/>
       <c r="AA124" s="4"/>
       <c r="AB124" s="4"/>
+    </row>
+    <row r="125" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+      <c r="R125" s="4"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="4"/>
+      <c r="AA125" s="4"/>
+      <c r="AB125" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
